--- a/Assets/06.Table/TransJewelTower.xlsx
+++ b/Assets/06.Table/TransJewelTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B91C38-5E4D-4D7A-A184-BFA1AD801F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665090FF-89BB-4057-852F-61185C1C8A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TransJewelTower" sheetId="1" r:id="rId1"/>
@@ -187,19 +187,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1E+148,1E+152,1E+156,1E+160,1E+164,1E+168,1E+172,1E+176,1E+180,1E+184,1E+188,1E+192,1E+196,1E+200,1E+204,1E+208,1E+212,1E+216,1E+220,1E+224,1E+228</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,20,30,40,50,60,70,80,90,100,110,120,130,140,150,155,160,165,170,175,180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,39,48,57,66,75,84,93,102,111,120,129,138,147,156,165,174,183,192,201,210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700</t>
+    <t>1E+148,1E+152,1E+156,1E+160,1E+164,1E+168,1E+172,1E+176,1E+180,1E+184,1E+188,1E+192,1E+196,1E+200,1E+204,1E+208,1E+212,1E+216,1E+220,1E+224,1E+228,1E+232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,20,30,40,50,60,70,80,90,100,110,120,130,140,150,155,160,165,170,175,180,185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700,730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,39,48,57,66,75,84,93,102,111,120,129,138,147,156,165,174,183,192,201,210,219</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +594,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -644,7 +644,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -684,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -704,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -724,7 +724,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -744,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -764,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -776,10 +776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:S27"/>
+  <dimension ref="C5:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -868,62 +868,62 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>30</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="S7" cm="1">
-        <f t="array" ref="S7:S27">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="S7:S28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
     </row>
@@ -1925,6 +1925,56 @@
       </c>
       <c r="S27">
         <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="E28">
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="F28">
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="G28">
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="H28">
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="I28">
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="J28">
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="L28">
+        <v>22</v>
+      </c>
+      <c r="M28">
+        <v>219</v>
+      </c>
+      <c r="N28">
+        <v>730</v>
+      </c>
+      <c r="O28">
+        <v>730</v>
+      </c>
+      <c r="P28">
+        <v>730</v>
+      </c>
+      <c r="Q28">
+        <v>730</v>
+      </c>
+      <c r="R28">
+        <v>730</v>
+      </c>
+      <c r="S28">
+        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TransJewelTower.xlsx
+++ b/Assets/06.Table/TransJewelTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665090FF-89BB-4057-852F-61185C1C8A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB32593-99D6-47D1-A087-CE7CA8D56752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -187,19 +187,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1E+148,1E+152,1E+156,1E+160,1E+164,1E+168,1E+172,1E+176,1E+180,1E+184,1E+188,1E+192,1E+196,1E+200,1E+204,1E+208,1E+212,1E+216,1E+220,1E+224,1E+228,1E+232</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,20,30,40,50,60,70,80,90,100,110,120,130,140,150,155,160,165,170,175,180,185</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700,730</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,39,48,57,66,75,84,93,102,111,120,129,138,147,156,165,174,183,192,201,210,219</t>
+    <t>1E+148,1E+152,1E+156,1E+160,1E+164,1E+168,1E+172,1E+176,1E+180,1E+184,1E+188,1E+192,1E+196,1E+200,1E+204,1E+208,1E+212,1E+216,1E+220,1E+224,1E+228,1E+232,1E+236</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,20,30,40,50,60,70,80,90,100,110,120,130,140,150,155,160,165,170,175,180,185,190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,39,48,57,66,75,84,93,102,111,120,129,138,147,156,165,174,183,192,201,210,219,228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700,730,760</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +594,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -644,7 +644,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -684,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -704,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -724,7 +724,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -744,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -764,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -776,10 +776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:S28"/>
+  <dimension ref="C5:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -868,62 +868,62 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>30</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="S7" cm="1">
-        <f t="array" ref="S7:S28">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="S7:S29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
     </row>
@@ -1975,6 +1975,72 @@
       </c>
       <c r="S28">
         <v>730</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="E29">
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="F29">
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="G29">
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="H29">
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="I29">
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="J29">
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="L29">
+        <v>23</v>
+      </c>
+      <c r="M29">
+        <v>228</v>
+      </c>
+      <c r="N29">
+        <v>760</v>
+      </c>
+      <c r="O29">
+        <v>760</v>
+      </c>
+      <c r="P29">
+        <v>760</v>
+      </c>
+      <c r="Q29">
+        <v>760</v>
+      </c>
+      <c r="R29">
+        <v>760</v>
+      </c>
+      <c r="S29">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>24</v>
+      </c>
+      <c r="L30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>25</v>
+      </c>
+      <c r="L31">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TransJewelTower.xlsx
+++ b/Assets/06.Table/TransJewelTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB32593-99D6-47D1-A087-CE7CA8D56752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4208E541-F427-44A0-A01E-6F6C84A643B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -187,19 +187,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1E+148,1E+152,1E+156,1E+160,1E+164,1E+168,1E+172,1E+176,1E+180,1E+184,1E+188,1E+192,1E+196,1E+200,1E+204,1E+208,1E+212,1E+216,1E+220,1E+224,1E+228,1E+232,1E+236</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,20,30,40,50,60,70,80,90,100,110,120,130,140,150,155,160,165,170,175,180,185,190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,39,48,57,66,75,84,93,102,111,120,129,138,147,156,165,174,183,192,201,210,219,228</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700,730,760</t>
+    <t>1E+148,1E+152,1E+156,1E+160,1E+164,1E+168,1E+172,1E+176,1E+180,1E+184,1E+188,1E+192,1E+196,1E+200,1E+204,1E+208,1E+212,1E+216,1E+220,1E+224,1E+228,1E+232,1E+236,1E+240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,20,30,40,50,60,70,80,90,100,110,120,130,140,150,155,160,165,170,175,180,185,190,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,39,48,57,66,75,84,93,102,111,120,129,138,147,156,165,174,183,192,201,210,219,228,237</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700,730,760,790</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +594,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -868,62 +868,62 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>30</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="S7" cm="1">
-        <f t="array" ref="S7:S29">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="S7:S30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
     </row>
@@ -2031,8 +2031,50 @@
       <c r="C30">
         <v>24</v>
       </c>
+      <c r="D30">
+        <v>1E+240</v>
+      </c>
+      <c r="E30">
+        <v>1E+240</v>
+      </c>
+      <c r="F30">
+        <v>1E+240</v>
+      </c>
+      <c r="G30">
+        <v>1E+240</v>
+      </c>
+      <c r="H30">
+        <v>1E+240</v>
+      </c>
+      <c r="I30">
+        <v>1E+240</v>
+      </c>
+      <c r="J30">
+        <v>1E+240</v>
+      </c>
       <c r="L30">
         <v>24</v>
+      </c>
+      <c r="M30">
+        <v>237</v>
+      </c>
+      <c r="N30">
+        <v>790</v>
+      </c>
+      <c r="O30">
+        <v>790</v>
+      </c>
+      <c r="P30">
+        <v>790</v>
+      </c>
+      <c r="Q30">
+        <v>790</v>
+      </c>
+      <c r="R30">
+        <v>790</v>
+      </c>
+      <c r="S30">
+        <v>790</v>
       </c>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/TransJewelTower.xlsx
+++ b/Assets/06.Table/TransJewelTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4208E541-F427-44A0-A01E-6F6C84A643B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEE49B4-9051-441F-8846-59507B660F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -187,19 +187,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1E+148,1E+152,1E+156,1E+160,1E+164,1E+168,1E+172,1E+176,1E+180,1E+184,1E+188,1E+192,1E+196,1E+200,1E+204,1E+208,1E+212,1E+216,1E+220,1E+224,1E+228,1E+232,1E+236,1E+240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,20,30,40,50,60,70,80,90,100,110,120,130,140,150,155,160,165,170,175,180,185,190,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,39,48,57,66,75,84,93,102,111,120,129,138,147,156,165,174,183,192,201,210,219,228,237</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700,730,760,790</t>
+    <t>1E+148,1E+152,1E+156,1E+160,1E+164,1E+168,1E+172,1E+176,1E+180,1E+184,1E+188,1E+192,1E+196,1E+200,1E+204,1E+208,1E+212,1E+216,1E+220,1E+224,1E+228,1E+232,1E+236,1E+240,1E+244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,20,30,40,50,60,70,80,90,100,110,120,130,140,150,155,160,165,170,175,180,185,190,200,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,39,48,57,66,75,84,93,102,111,120,129,138,147,156,165,174,183,192,201,210,219,228,237,246</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700,730,760,790,820</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +594,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -868,62 +868,62 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>30</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="S7" cm="1">
-        <f t="array" ref="S7:S30">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="S7:S31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
     </row>
@@ -2081,8 +2081,50 @@
       <c r="C31">
         <v>25</v>
       </c>
+      <c r="D31">
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="E31">
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="F31">
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="G31">
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="H31">
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="I31">
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="J31">
+        <v>1.0000000000000001E+244</v>
+      </c>
       <c r="L31">
         <v>25</v>
+      </c>
+      <c r="M31">
+        <v>246</v>
+      </c>
+      <c r="N31">
+        <v>820</v>
+      </c>
+      <c r="O31">
+        <v>820</v>
+      </c>
+      <c r="P31">
+        <v>820</v>
+      </c>
+      <c r="Q31">
+        <v>820</v>
+      </c>
+      <c r="R31">
+        <v>820</v>
+      </c>
+      <c r="S31">
+        <v>820</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TransJewelTower.xlsx
+++ b/Assets/06.Table/TransJewelTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEE49B4-9051-441F-8846-59507B660F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871573D5-CCD0-457C-9D25-7F9976CFF537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,19 +187,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1E+148,1E+152,1E+156,1E+160,1E+164,1E+168,1E+172,1E+176,1E+180,1E+184,1E+188,1E+192,1E+196,1E+200,1E+204,1E+208,1E+212,1E+216,1E+220,1E+224,1E+228,1E+232,1E+236,1E+240,1E+244</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,20,30,40,50,60,70,80,90,100,110,120,130,140,150,155,160,165,170,175,180,185,190,200,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,39,48,57,66,75,84,93,102,111,120,129,138,147,156,165,174,183,192,201,210,219,228,237,246</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700,730,760,790,820</t>
+    <t>1E+148,1E+152,1E+156,1E+160,1E+164,1E+168,1E+172,1E+176,1E+180,1E+184,1E+188,1E+192,1E+196,1E+200,1E+204,1E+208,1E+212,1E+216,1E+220,1E+224,1E+228,1E+232,1E+236,1E+240,1E+244,1E+248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,20,30,40,50,60,70,80,90,100,110,120,130,140,150,155,160,165,170,175,180,185,190,200,200,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,39,48,57,66,75,84,93,102,111,120,129,138,147,156,165,174,183,192,201,210,219,228,237,246,255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700,730,760,790,820,850</t>
+  </si>
+  <si>
+    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700,730,760,790,820,850</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +597,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -664,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -776,7 +779,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:S31"/>
+  <dimension ref="C5:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
@@ -868,62 +871,62 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>30</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="S7" cm="1">
-        <f t="array" ref="S7:S31">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="S7:S32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
     </row>
@@ -2125,6 +2128,50 @@
       </c>
       <c r="S31">
         <v>820</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>1E+248</v>
+      </c>
+      <c r="E32">
+        <v>1E+248</v>
+      </c>
+      <c r="F32">
+        <v>1E+248</v>
+      </c>
+      <c r="G32">
+        <v>1E+248</v>
+      </c>
+      <c r="H32">
+        <v>1E+248</v>
+      </c>
+      <c r="I32">
+        <v>1E+248</v>
+      </c>
+      <c r="J32">
+        <v>1E+248</v>
+      </c>
+      <c r="M32">
+        <v>255</v>
+      </c>
+      <c r="N32">
+        <v>850</v>
+      </c>
+      <c r="O32">
+        <v>850</v>
+      </c>
+      <c r="P32">
+        <v>850</v>
+      </c>
+      <c r="Q32">
+        <v>850</v>
+      </c>
+      <c r="R32">
+        <v>850</v>
+      </c>
+      <c r="S32">
+        <v>850</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TransJewelTower.xlsx
+++ b/Assets/06.Table/TransJewelTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871573D5-CCD0-457C-9D25-7F9976CFF537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D36CC8D-42BB-4336-AB08-95FA61BF9320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,22 +187,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1E+148,1E+152,1E+156,1E+160,1E+164,1E+168,1E+172,1E+176,1E+180,1E+184,1E+188,1E+192,1E+196,1E+200,1E+204,1E+208,1E+212,1E+216,1E+220,1E+224,1E+228,1E+232,1E+236,1E+240,1E+244,1E+248</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,20,30,40,50,60,70,80,90,100,110,120,130,140,150,155,160,165,170,175,180,185,190,200,200,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,39,48,57,66,75,84,93,102,111,120,129,138,147,156,165,174,183,192,201,210,219,228,237,246,255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700,730,760,790,820,850</t>
-  </si>
-  <si>
-    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700,730,760,790,820,850</t>
+    <t>1E+148,1E+152,1E+156,1E+160,1E+164,1E+168,1E+172,1E+176,1E+180,1E+184,1E+188,1E+192,1E+196,1E+200,1E+204,1E+208,1E+212,1E+216,1E+220,1E+224,1E+228,1E+232,1E+236,1E+240,1E+244,1E+248,1E+252</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,20,30,40,50,60,70,80,90,100,110,120,130,140,150,155,160,165,170,175,180,185,190,200,200,200,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,39,48,57,66,75,84,93,102,111,120,129,138,147,156,165,174,183,192,201,210,219,228,237,246,255,264</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700,730,760,790,820,850,880</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +594,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -779,7 +776,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:S32"/>
+  <dimension ref="C5:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
@@ -871,62 +868,62 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>30</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="S7" cm="1">
-        <f t="array" ref="S7:S32">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="S7:S33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
     </row>
@@ -2172,6 +2169,50 @@
       </c>
       <c r="S32">
         <v>850</v>
+      </c>
+    </row>
+    <row r="33" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="E33">
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="F33">
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="G33">
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="H33">
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="I33">
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="J33">
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="M33">
+        <v>264</v>
+      </c>
+      <c r="N33">
+        <v>880</v>
+      </c>
+      <c r="O33">
+        <v>880</v>
+      </c>
+      <c r="P33">
+        <v>880</v>
+      </c>
+      <c r="Q33">
+        <v>880</v>
+      </c>
+      <c r="R33">
+        <v>880</v>
+      </c>
+      <c r="S33">
+        <v>880</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TransJewelTower.xlsx
+++ b/Assets/06.Table/TransJewelTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D36CC8D-42BB-4336-AB08-95FA61BF9320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1D22D5-2E9B-4E47-B735-6039B726AC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,19 +187,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1E+148,1E+152,1E+156,1E+160,1E+164,1E+168,1E+172,1E+176,1E+180,1E+184,1E+188,1E+192,1E+196,1E+200,1E+204,1E+208,1E+212,1E+216,1E+220,1E+224,1E+228,1E+232,1E+236,1E+240,1E+244,1E+248,1E+252</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,20,30,40,50,60,70,80,90,100,110,120,130,140,150,155,160,165,170,175,180,185,190,200,200,200,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,39,48,57,66,75,84,93,102,111,120,129,138,147,156,165,174,183,192,201,210,219,228,237,246,255,264</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700,730,760,790,820,850,880</t>
+    <t>1E+148,1E+152,1E+156,1E+160,1E+164,1E+168,1E+172,1E+176,1E+180,1E+184,1E+188,1E+192,1E+196,1E+200,1E+204,1E+208,1E+212,1E+216,1E+220,1E+224,1E+228,1E+232,1E+236,1E+240,1E+244,1E+248,1E+252,1E+256,1E+260,1E+264</t>
+  </si>
+  <si>
+    <t>1E+148,1E+152,1E+156,1E+160,1E+164,1E+168,1E+172,1E+176,1E+180,1E+184,1E+188,1E+192,1E+196,1E+200,1E+204,1E+208,1E+212,1E+216,1E+220,1E+224,1E+228,1E+232,1E+236,1E+240,1E+244,1E+248,1E+252,1E+256,1E+260,1E+264</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,20,30,40,50,60,70,80,90,100,110,120,130,140,150,155,160,165,170,175,180,185,190,200,200,200,200,200,200,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,39,48,57,66,75,84,93,102,111,120,129,138,147,156,165,174,183,192,201,210,219,228,237,246,255,264,273,282,291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,130,160,190,220,250,280,310,340,370,400,430,460,490,520,550,580,610,640,670,700,730,760,790,820,850,880,910,940,970</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +597,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -635,16 +638,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -658,13 +661,13 @@
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -678,13 +681,13 @@
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -698,13 +701,13 @@
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -718,13 +721,13 @@
         <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -738,13 +741,13 @@
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -758,13 +761,13 @@
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -776,7 +779,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7552DF-140E-44EF-A951-FA5AE60378BC}">
-  <dimension ref="C5:S33"/>
+  <dimension ref="C5:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
@@ -868,62 +871,62 @@
         <v>1</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7:D33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="D7:D36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7:E33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="E7:E36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7:F33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="F7:F36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7:G33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="G7:G36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="H7:H36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7:I33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="I7:I36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="J7" cm="1">
-        <f t="array" ref="J7:J33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="J7:J36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!C8,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>1E+148</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7:M33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="M7:M36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F2,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>30</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7:N33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="N7:N36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F3,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" ref="O7:O33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="O7:O36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="P7" cm="1">
-        <f t="array" ref="P7:P33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="P7:P36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F4,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="Q7" cm="1">
-        <f t="array" ref="Q7:Q33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="Q7:Q36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F5,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="R7" cm="1">
-        <f t="array" ref="R7:R33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="R7:R36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F6,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
       <c r="S7" cm="1">
-        <f t="array" ref="S7:S33">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
+        <f t="array" ref="S7:S36">_xlfn.FILTERXML("&lt;list&gt;&lt;item&gt;" &amp;SUBSTITUTE(TransJewelTower!F7,",","&lt;/item&gt;&lt;item&gt;") &amp; "&lt;/item&gt;&lt;/list&gt;","//item")</f>
         <v>100</v>
       </c>
     </row>
@@ -2213,6 +2216,138 @@
       </c>
       <c r="S33">
         <v>880</v>
+      </c>
+    </row>
+    <row r="34" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>1E+256</v>
+      </c>
+      <c r="E34">
+        <v>1E+256</v>
+      </c>
+      <c r="F34">
+        <v>1E+256</v>
+      </c>
+      <c r="G34">
+        <v>1E+256</v>
+      </c>
+      <c r="H34">
+        <v>1E+256</v>
+      </c>
+      <c r="I34">
+        <v>1E+256</v>
+      </c>
+      <c r="J34">
+        <v>1E+256</v>
+      </c>
+      <c r="M34">
+        <v>273</v>
+      </c>
+      <c r="N34">
+        <v>910</v>
+      </c>
+      <c r="O34">
+        <v>910</v>
+      </c>
+      <c r="P34">
+        <v>910</v>
+      </c>
+      <c r="Q34">
+        <v>910</v>
+      </c>
+      <c r="R34">
+        <v>910</v>
+      </c>
+      <c r="S34">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="E35">
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="F35">
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="G35">
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="H35">
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="I35">
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="J35">
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="M35">
+        <v>282</v>
+      </c>
+      <c r="N35">
+        <v>940</v>
+      </c>
+      <c r="O35">
+        <v>940</v>
+      </c>
+      <c r="P35">
+        <v>940</v>
+      </c>
+      <c r="Q35">
+        <v>940</v>
+      </c>
+      <c r="R35">
+        <v>940</v>
+      </c>
+      <c r="S35">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="36" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>1E+264</v>
+      </c>
+      <c r="E36">
+        <v>1E+264</v>
+      </c>
+      <c r="F36">
+        <v>1E+264</v>
+      </c>
+      <c r="G36">
+        <v>1E+264</v>
+      </c>
+      <c r="H36">
+        <v>1E+264</v>
+      </c>
+      <c r="I36">
+        <v>1E+264</v>
+      </c>
+      <c r="J36">
+        <v>1E+264</v>
+      </c>
+      <c r="M36">
+        <v>291</v>
+      </c>
+      <c r="N36">
+        <v>970</v>
+      </c>
+      <c r="O36">
+        <v>970</v>
+      </c>
+      <c r="P36">
+        <v>970</v>
+      </c>
+      <c r="Q36">
+        <v>970</v>
+      </c>
+      <c r="R36">
+        <v>970</v>
+      </c>
+      <c r="S36">
+        <v>970</v>
       </c>
     </row>
   </sheetData>
